--- a/DataTemplate.xlsx
+++ b/DataTemplate.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">1688.7, 1511.6, 1380.5, 1201.4, 1072.4, 893.4, 778.3, 585.2, 456.1, 327.1</t>
   </si>
@@ -59,9 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">1656.7, 1479.6, 1336.6, 1205.5, 1074.4, 929.3, 750.3, 573.2, 456.1, 327.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
   </si>
   <si>
     <t xml:space="preserve">1686.6, 1509.6, 1364.5, 1261.5, 1146.4, 935.4, 758.3, 615.3, 472.1, 329.1</t>
@@ -202,122 +196,75 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="n">
+    <row r="1" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="n">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="n">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="n">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="n">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="n">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="n">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
